--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dweepa/Documents/CubeBio/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1763EF94-E12C-2F44-BCAF-0288BF56FC5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADED426-CFAF-AF4A-93F3-0C132F0B459B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{B4DD817B-1EDE-E24B-8C6B-9DED8AF9E480}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{B4DD817B-1EDE-E24B-8C6B-9DED8AF9E480}"/>
   </bookViews>
   <sheets>
     <sheet name="SNN" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>SNN</t>
   </si>
   <si>
-    <t>k (Nodes per layer)</t>
-  </si>
-  <si>
     <t>d (Depth)</t>
   </si>
   <si>
@@ -79,6 +76,12 @@
   </si>
   <si>
     <t>Layers</t>
+  </si>
+  <si>
+    <t>K (nodes per layer)</t>
+  </si>
+  <si>
+    <t>Embedding length</t>
   </si>
 </sst>
 </file>
@@ -468,167 +471,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76787C9-4968-754B-9436-824494893246}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="O4" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BED218-4C2D-9241-B88C-0F3F466DBB58}">
-  <dimension ref="A1:P18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="14.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -646,30 +508,30 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -689,10 +551,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -701,10 +563,10 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -736,28 +598,183 @@
       </c>
       <c r="P4" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O18" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="H2:P2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:O3"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BED218-4C2D-9241-B88C-0F3F466DBB58}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="14.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="39" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="18" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>